--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,105 +43,114 @@
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>disturbing</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>destroying</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>guilty</t>
+    <t>false</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>serious</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>sad</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>sad</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>frightening</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>black</t>
   </si>
   <si>
@@ -151,163 +160,166 @@
     <t>[UNK]</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>high</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>first</t>
+    <t>top</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>please</t>
   </si>
   <si>
     <t>right</t>
   </si>
   <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>online</t>
+    <t>today</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>real</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>opening</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
     <t>media</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
     <t>watch</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
     <t>twitter</t>
   </si>
   <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>know</t>
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>’</t>
@@ -674,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -764,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -785,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -796,10 +808,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -835,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -864,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -885,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -893,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9519230769230769</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -911,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -935,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -943,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -961,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>0.8275862068965517</v>
+        <v>0.84</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -985,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -993,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.9375</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,16 +1026,16 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1035,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1043,13 +1055,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1064,16 +1076,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K9">
-        <v>0.7466666666666667</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1085,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1093,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.875</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1111,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.7368421052631579</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1135,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1143,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,16 +1176,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.7</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1185,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1193,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8823529411764706</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1211,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1235,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1243,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1264,16 +1276,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>0.5925925925925926</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1285,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1293,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,16 +1326,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.5789473684210527</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1335,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1343,13 +1355,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8636363636363636</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C15">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1361,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.5555555555555556</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1385,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1393,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8181818181818182</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1411,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K16">
-        <v>0.4848484848484849</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1435,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1464,28 +1476,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.4782608695652174</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>11</v>
-      </c>
-      <c r="M17">
-        <v>11</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1514,16 +1526,16 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.4615384615384616</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1535,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1564,16 +1576,16 @@
         <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K19">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1585,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1593,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6956521739130435</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1611,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L20">
         <v>7</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20">
-        <v>0.3958333333333333</v>
-      </c>
-      <c r="L20">
-        <v>19</v>
-      </c>
       <c r="M20">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1635,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1643,13 +1655,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6808510638297872</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1661,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K21">
-        <v>0.3928571428571428</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1685,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1693,13 +1705,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1711,19 +1723,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K22">
-        <v>0.3684210526315789</v>
+        <v>0.4375</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1735,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1743,13 +1755,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6538461538461539</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1761,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>0.3518518518518519</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L23">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1785,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1793,13 +1805,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6521739130434783</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="C24">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1811,31 +1823,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K24">
-        <v>0.3461538461538461</v>
+        <v>0.4</v>
       </c>
       <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>9</v>
-      </c>
-      <c r="M24">
-        <v>9</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1843,13 +1855,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6470588235294118</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1861,31 +1873,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K25">
-        <v>0.3414634146341464</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L25">
+        <v>9</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>14</v>
-      </c>
-      <c r="M25">
-        <v>14</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1896,35 +1908,35 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L26">
         <v>9</v>
       </c>
-      <c r="D26">
+      <c r="M26">
         <v>9</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K26">
-        <v>0.3260869565217391</v>
-      </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26">
-        <v>15</v>
-      </c>
       <c r="N26">
         <v>1</v>
       </c>
@@ -1935,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1943,37 +1955,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6071428571428571</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>17</v>
       </c>
-      <c r="D27">
-        <v>17</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>11</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K27">
-        <v>0.3220338983050847</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1985,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1993,13 +2005,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2011,19 +2023,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K28">
-        <v>0.3005464480874317</v>
+        <v>0.3060109289617486</v>
       </c>
       <c r="L28">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M28">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2035,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2043,13 +2055,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2061,19 +2073,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K29">
-        <v>0.2622950819672131</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2085,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2093,13 +2105,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2111,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K30">
-        <v>0.2608695652173913</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2135,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2143,13 +2155,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5142857142857142</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2161,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K31">
-        <v>0.2394366197183098</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2185,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2193,13 +2205,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5128205128205128</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2211,19 +2223,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K32">
-        <v>0.2352941176470588</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2235,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>65</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2243,13 +2255,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2261,19 +2273,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K33">
-        <v>0.2210526315789474</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2285,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2293,13 +2305,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2311,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K34">
-        <v>0.2153846153846154</v>
+        <v>0.2465753424657534</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2335,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2343,13 +2355,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4375</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2361,19 +2373,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K35">
-        <v>0.1764705882352941</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2385,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2393,13 +2405,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3928571428571428</v>
+        <v>0.5</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2411,19 +2423,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K36">
-        <v>0.1707317073170732</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2435,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2443,13 +2455,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3571428571428572</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2461,13 +2473,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K37">
-        <v>0.16</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L37">
         <v>8</v>
@@ -2485,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2493,13 +2505,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2435897435897436</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2511,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K38">
-        <v>0.15</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2535,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2543,37 +2555,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.06143344709897611</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K39">
-        <v>0.14</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2589,17 +2601,41 @@
       </c>
     </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.3928571428571428</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>17</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K40">
-        <v>0.136986301369863</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2611,21 +2647,45 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>54</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K41">
-        <v>0.1314814814814815</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="L41">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2637,21 +2697,45 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>469</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.06574394463667819</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <v>0.34</v>
+      </c>
+      <c r="F42">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>270</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K42">
-        <v>0.1296296296296296</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2663,21 +2747,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K43">
-        <v>0.1184210526315789</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2689,21 +2773,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K44">
-        <v>0.1044776119402985</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2715,47 +2799,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K45">
-        <v>0.1010558069381599</v>
+        <v>0.1166077738515901</v>
       </c>
       <c r="L45">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>596</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K46">
-        <v>0.0958904109589041</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2767,21 +2851,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K47">
-        <v>0.0945945945945946</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="L47">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="M47">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2793,21 +2877,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>67</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K48">
-        <v>0.08928571428571429</v>
+        <v>0.09487951807228916</v>
       </c>
       <c r="L48">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="M48">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2819,21 +2903,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K49">
-        <v>0.08029197080291971</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L49">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M49">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2845,47 +2929,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>126</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K50">
-        <v>0.07692307692307693</v>
+        <v>0.07624633431085044</v>
       </c>
       <c r="L50">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N50">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>72</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K51">
-        <v>0.0761904761904762</v>
+        <v>0.07301587301587302</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2897,21 +2981,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K52">
-        <v>0.07420494699646643</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L52">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2923,41 +3007,41 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>262</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K53">
-        <v>0.06764705882352941</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N53">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>317</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K54">
-        <v>0.06422018348623854</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="L54">
         <v>7</v>
@@ -2975,73 +3059,73 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K55">
-        <v>0.0594002306805075</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="L55">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M55">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1631</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K56">
-        <v>0.04871794871794872</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L56">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M56">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="N56">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>742</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K57">
-        <v>0.04513888888888889</v>
+        <v>0.04353393085787452</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3053,33 +3137,59 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>275</v>
+        <v>747</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="K58">
-        <v>0.02135231316725979</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L58">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N58">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>275</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K59">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L59">
+        <v>10</v>
+      </c>
+      <c r="M59">
+        <v>29</v>
+      </c>
+      <c r="N59">
+        <v>0.34</v>
+      </c>
+      <c r="O59">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
